--- a/medicine/Autisme/Am_I_Still_Autistic_/Am_I_Still_Autistic_.xlsx
+++ b/medicine/Autisme/Am_I_Still_Autistic_/Am_I_Still_Autistic_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Am_I_Still_Autistic%3F</t>
+          <t>Am_I_Still_Autistic?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Am I Still Autistic?: How a Low-Functioning, Slightly Retarded Toddler Became the CEO of a Multi-Million Dollar Corporation (en français : Suis-je encore autiste ? : Comment un tout-petit à faible fonctionnement, légèrement retardé, est devenu le PDG d'une entreprise multimillionnaire) est une autobiographie d'auto-soutien écrite par le Dr John R. Hall. C'est un compte-rendu de l'expérience de l'autisme à la fois par quelqu'un qui a fait l'objet d'un diagnostic, et en tant que père d'un enfant ayant des besoins spéciaux.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Am_I_Still_Autistic%3F</t>
+          <t>Am_I_Still_Autistic?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Arrière-plan</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le livre raconte l'enfance et la vie adulte de Hall, qui s'est fait diagnostiquer un « autisme sévère » avec d'autres problèmes de développement avant l'âge de deux ans[1]. Le livre raconte le parcours de Hall, qui comprend la création de Greenwood &amp; Hall, une société de technologies de l'éducation basée à Santa Ana, en Californie, la naissance du fils de Hall, et la façon dont il vit le diagnostic de l'autisme de son fils[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le livre raconte l'enfance et la vie adulte de Hall, qui s'est fait diagnostiquer un « autisme sévère » avec d'autres problèmes de développement avant l'âge de deux ans. Le livre raconte le parcours de Hall, qui comprend la création de Greenwood &amp; Hall, une société de technologies de l'éducation basée à Santa Ana, en Californie, la naissance du fils de Hall, et la façon dont il vit le diagnostic de l'autisme de son fils.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Am_I_Still_Autistic%3F</t>
+          <t>Am_I_Still_Autistic?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Dr John R. Hall, Am I Still Autistic?: How a Low-Functioning, Slightly Retarded Toddler Became the CEO of a Multi-Million Dollar Corporation, Opportunities In Education, LLC., Santa Monica, 2011  (ISBN 978-0615504667)</t>
         </is>
